--- a/biology/Médecine/Classe_ATC_C04/Classe_ATC_C04.xlsx
+++ b/biology/Médecine/Classe_ATC_C04/Classe_ATC_C04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C04, dénommée « Vasodilatateurs périphériques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C04, dénommée « Vasodilatateurs périphériques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,34 +525,243 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C04AA Dérivés du 2-amino-1-phényléthanol
-C04AA01 Isoxsuprine (en)
+          <t>C04AA Dérivés du 2-amino-1-phényléthanol</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C04AA01 Isoxsuprine (en)
 C04AA02 Buphénine (en)
-C04AA31 Baméthan (en)
-C04AB Dérivés de l'imidazoline
-C04AB01 Phentolamine
-C04AB02 Tolazoline (en)
-C04AC Acide nicotinique et ses dérivés
-C04AC01 Nicotinique acide
+C04AA31 Baméthan (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C04AB Dérivés de l'imidazoline</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C04AB01 Phentolamine
+C04AB02 Tolazoline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C04AC Acide nicotinique et ses dérivés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C04AC01 Nicotinique acide
 C04AC02 Nicotinyl alcool (en) (pyridylcarbinol)
 C04AC03 Inositol nicotinate (en)
-C04AC07 Ciclonicate (en)
-C04AD Dérivés de la purine
-C04AD01 Pentifylline (en)
+C04AC07 Ciclonicate (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C04AD Dérivés de la purine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C04AD01 Pentifylline (en)
 C04AD02 Xantinol nicotinate (en)
 C04AD03 Pentoxifylline
 C04AD04 Étofylline nicotinate (en)
-« QC04AD90 » Propentofylline (en)
-C04AE Alcaloïdes de l'ergot de seigle
-C04AE01 Ergoloïde mésylates (en)
+« QC04AD90 » Propentofylline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C04AE Alcaloïdes de l'ergot de seigle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C04AE01 Ergoloïde mésylates (en)
 C04AE02 Nicergoline (en)
 C04AE04 Dihydroergocristine (en)
 C04AE51 Ergoloïde mésylates en association
-C04AE54 Dihydroergocristine en association
-C04AF Enzymes
-C04AF01 Kallidinogénase
-C04AX Autres vasodilatateurs périphériques
-C04AX01 Cyclandélate (en)
+C04AE54 Dihydroergocristine en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C04AF Enzymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C04AF01 Kallidinogénase</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C04A Vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C04AX Autres vasodilatateurs périphériques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C04AX01 Cyclandélate (en)
 C04AX02 Phénoxybenzamine (en)
 C04AX07 Vincamine (en)
 C04AX10 Moxisylyte (en)
